--- a/dani/zprueba/aidanai.xlsx
+++ b/dani/zprueba/aidanai.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E923F27B-19A1-4DF1-94F1-F77153B5C23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED71508-353C-4AFE-874C-A76ED111AA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimientos" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11065" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11085" uniqueCount="711">
   <si>
     <t>FECHA</t>
   </si>
@@ -2171,19 +2171,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2206,10 +2200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,9 +2542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2720"/>
+  <dimension ref="A1:F2725"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2725" sqref="A2725:XFD2725"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -56167,13 +56162,13 @@
         <v>46038</v>
       </c>
       <c r="B2681" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="C2681" t="s">
         <v>46</v>
       </c>
       <c r="D2681">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E2681" t="s">
         <v>46</v>
@@ -56187,13 +56182,13 @@
         <v>46038</v>
       </c>
       <c r="B2682" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="C2682" t="s">
         <v>46</v>
       </c>
       <c r="D2682">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E2682" t="s">
         <v>46</v>
@@ -56204,16 +56199,16 @@
     </row>
     <row r="2683" spans="1:6">
       <c r="A2683" s="1">
-        <v>46038</v>
+        <v>46038.041666666664</v>
       </c>
       <c r="B2683" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="C2683" t="s">
         <v>46</v>
       </c>
       <c r="D2683">
-        <v>-100</v>
+        <v>-399.84</v>
       </c>
       <c r="E2683" t="s">
         <v>46</v>
@@ -56224,16 +56219,16 @@
     </row>
     <row r="2684" spans="1:6">
       <c r="A2684" s="1">
-        <v>46038</v>
+        <v>46038.041666666664</v>
       </c>
       <c r="B2684" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="C2684" t="s">
         <v>46</v>
       </c>
       <c r="D2684">
-        <v>100</v>
+        <v>399.84</v>
       </c>
       <c r="E2684" t="s">
         <v>46</v>
@@ -56962,701 +56957,797 @@
         <v>35</v>
       </c>
     </row>
+    <row r="2721" spans="1:6">
+      <c r="A2721" s="1">
+        <v>46053.041666666664</v>
+      </c>
+      <c r="B2721" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2721" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2721">
+        <v>-150</v>
+      </c>
+      <c r="E2721" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2721" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:6">
+      <c r="A2722" s="1">
+        <v>46053.041666666664</v>
+      </c>
+      <c r="B2722" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2722" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2722">
+        <v>150</v>
+      </c>
+      <c r="E2722" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2722" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:6">
+      <c r="A2723" s="1">
+        <v>46053.041666666664</v>
+      </c>
+      <c r="B2723" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2723" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2723">
+        <v>-55.5</v>
+      </c>
+      <c r="E2723" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2723" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:6">
+      <c r="A2724" s="1">
+        <v>46053.041666666664</v>
+      </c>
+      <c r="B2724" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2724" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2724">
+        <v>55.5</v>
+      </c>
+      <c r="E2724" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2724" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:6">
+      <c r="A2725" s="1">
+        <v>46054.041666666664</v>
+      </c>
+      <c r="B2725" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2725" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2725">
+        <v>1.37</v>
+      </c>
+      <c r="E2725" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2725" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F2720" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F2724 A2725:F2725" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E587A13-06F4-40FB-902B-BCF5F18B28B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>698</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>699</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>602</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>701</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>703</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>703</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>487</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>703</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>705</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>703</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>703</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>706</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>445</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>703</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>707</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>706</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>321</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>705</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>705</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>706</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>708</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>701</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>706</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>304</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>703</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>642</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>709</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>706</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>680</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>709</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>320</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>705</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>701</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>706</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>708</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>230</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>701</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>238</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>706</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>701</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>509</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>701</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>706</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>701</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>701</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>710</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>607</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>703</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>603</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>706</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>706</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>525</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>706</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>701</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>330</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>705</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>458</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>705</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>369</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>703</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>707</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>380</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>708</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>404</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>706</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>701</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>706</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>363</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>701</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>361</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>706</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>701</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>246</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>701</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>708</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>701</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>574</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>706</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>701</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>701</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>710</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>701</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>706</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>431</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>705</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>704</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C61" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/dani/zprueba/aidanai.xlsx
+++ b/dani/zprueba/aidanai.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED71508-353C-4AFE-874C-A76ED111AA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC1F66D-8F21-4A5C-A6DA-898516C19C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Movimientos" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet name="TablaMovimientos" sheetId="1" r:id="rId1"/>
+    <sheet name="TablaConfig" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11085" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11109" uniqueCount="711">
   <si>
     <t>FECHA</t>
   </si>
@@ -2207,7 +2207,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2218,6 +2222,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0E42F37-1A5A-410B-BAF3-6C4359B7F056}" name="Tabla1" displayName="Tabla1" ref="A1:F2731" totalsRowShown="0">
+  <autoFilter ref="A1:F2731" xr:uid="{E0E42F37-1A5A-410B-BAF3-6C4359B7F056}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1699774C-E477-4B33-91DA-659FAE5EECDD}" name="FECHA" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{37BA9BA0-AAF4-4B44-8692-901A9A91303C}" name="CUENTA"/>
+    <tableColumn id="3" xr3:uid="{6F290F08-0C4F-4E5F-9737-37F4DB11262B}" name="CONCEPTO"/>
+    <tableColumn id="4" xr3:uid="{7A7C5AF4-264C-4D9B-96C5-5F6AB79B8D7D}" name="IMPORTE"/>
+    <tableColumn id="5" xr3:uid="{14D633D8-28ED-4BF7-9280-581978AAC628}" name="DESCRIPCIÓN"/>
+    <tableColumn id="6" xr3:uid="{72541CB2-53C9-4266-A2C4-5E69E513E28C}" name="BENEFICIARIO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{469AEF79-F776-4A57-9DB1-A101B3F70DC4}" name="Tabla2" displayName="Tabla2" ref="A1:C61" totalsRowShown="0">
+  <autoFilter ref="A1:C61" xr:uid="{469AEF79-F776-4A57-9DB1-A101B3F70DC4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0A3FD0A9-E810-4286-AEFC-C7467777141E}" name="Cuenta"/>
+    <tableColumn id="2" xr3:uid="{DAEA412A-1F6D-41B5-B320-125BFC46231F}" name="Tipo"/>
+    <tableColumn id="3" xr3:uid="{7B69CA32-180C-4076-B615-62A67E27BEAC}" name="EsInversion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2542,19 +2573,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2725"/>
+  <dimension ref="A1:F2731"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2725" sqref="A2725:XFD2725"/>
+    <sheetView topLeftCell="A2727" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="3" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="40.875" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -57045,23 +57077,143 @@
         <v>126</v>
       </c>
       <c r="C2725" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2725">
+        <v>800</v>
+      </c>
+      <c r="E2725" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2725" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:6">
+      <c r="A2726" s="1">
+        <v>46054.041666666664</v>
+      </c>
+      <c r="B2726" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2726" t="s">
         <v>32</v>
       </c>
-      <c r="D2725">
+      <c r="D2726">
         <v>1.37</v>
       </c>
-      <c r="E2725" t="s">
+      <c r="E2726" t="s">
         <v>32</v>
       </c>
-      <c r="F2725" t="s">
+      <c r="F2726" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:6">
+      <c r="A2727" s="1">
+        <v>46055.041666666664</v>
+      </c>
+      <c r="B2727" t="s">
+        <v>602</v>
+      </c>
+      <c r="C2727" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2727">
+        <v>-150</v>
+      </c>
+      <c r="E2727" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2727" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:6">
+      <c r="A2728" s="1">
+        <v>46055.041666666664</v>
+      </c>
+      <c r="B2728" t="s">
+        <v>602</v>
+      </c>
+      <c r="C2728" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2728">
+        <v>-39.47</v>
+      </c>
+      <c r="E2728" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2728" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:6">
+      <c r="A2729" s="1">
+        <v>46055.041666666664</v>
+      </c>
+      <c r="B2729" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2729" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2729">
+        <v>-1.4</v>
+      </c>
+      <c r="E2729" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2729" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:6">
+      <c r="A2730" s="1">
+        <v>46055.041666666664</v>
+      </c>
+      <c r="B2730" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2730" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2730">
+        <v>-125</v>
+      </c>
+      <c r="E2730" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2730" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:6">
+      <c r="A2731" s="1">
+        <v>46055.041666666664</v>
+      </c>
+      <c r="B2731" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2731" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2731">
+        <v>125</v>
+      </c>
+      <c r="E2731" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2731" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:F2724 A2725:F2725" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -57069,9 +57221,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -57746,8 +57905,8 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:C61" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>